--- a/KreditiFulm.xlsx
+++ b/KreditiFulm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A124855-3EB2-490E-9BB2-6E17150184E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBEEF78-FFAE-4283-99EE-2AE86AC1EA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="38">
   <si>
     <t>Банка</t>
   </si>
@@ -208,6 +208,9 @@
 2) административен трошок 0,50%
 70г. на МКДот на достасување ( 75 со вклучен ко-кредитобарател)
 </t>
+  </si>
+  <si>
+    <t>ФУЛМ Штедилница д.о.о. - Скопје</t>
   </si>
 </sst>
 </file>
@@ -595,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +663,7 @@
     </row>
     <row r="2" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -701,7 +704,7 @@
     </row>
     <row r="3" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -742,7 +745,7 @@
     </row>
     <row r="4" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -783,7 +786,7 @@
     </row>
     <row r="5" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="7" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -906,7 +909,7 @@
     </row>
     <row r="8" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -988,7 +991,7 @@
     </row>
     <row r="10" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -1070,7 +1073,7 @@
     </row>
     <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1108,7 +1111,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1146,7 +1149,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1184,7 +1187,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
